--- a/evaluation/data_visualization/merged_results/domain_metrics_comparison.xlsx
+++ b/evaluation/data_visualization/merged_results/domain_metrics_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,11 +531,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qwen3-0.6B</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.837</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -557,8 +557,8 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="I2" s="3" t="n">
+        <v>41.82</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -573,17 +573,17 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.514</v>
+        <v>4.182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gemma-3-1b-it</t>
+          <t>Qwen3-0.6B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.924</v>
+        <v>8.837</v>
       </c>
       <c r="E3" t="n">
-        <v>14.703</v>
+        <v>16.3</v>
       </c>
       <c r="F3" t="n">
-        <v>12.765</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14.632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.547</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10.778</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11.784</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11.938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10.787</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Llama-3.2-1B-Instruct</t>
+          <t>gemma-3-1b-it</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -639,47 +639,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.449</v>
+        <v>12.924</v>
       </c>
       <c r="E4" t="n">
-        <v>14.539</v>
+        <v>14.703</v>
       </c>
       <c r="F4" t="n">
-        <v>16.981</v>
+        <v>12.765</v>
       </c>
       <c r="G4" t="n">
-        <v>14.866</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.368</v>
+        <v>14.632</v>
       </c>
       <c r="I4" t="n">
-        <v>13.315</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.622</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11.186</v>
+        <v>10.778</v>
       </c>
       <c r="L4" t="n">
-        <v>22.469</v>
+        <v>11.784</v>
       </c>
       <c r="M4" t="n">
-        <v>19.236</v>
+        <v>11.938</v>
       </c>
       <c r="N4" t="n">
-        <v>16.303</v>
+        <v>8.952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qwen2.5-1.5B-Instruct</t>
+          <t>Llama-3.2-1B-Instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -687,47 +687,47 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.292</v>
+        <v>12.449</v>
       </c>
       <c r="E5" t="n">
-        <v>19.6</v>
+        <v>14.539</v>
       </c>
       <c r="F5" t="n">
-        <v>18.446</v>
+        <v>16.981</v>
       </c>
       <c r="G5" t="n">
-        <v>18.472</v>
+        <v>14.866</v>
       </c>
       <c r="H5" t="n">
-        <v>17.229</v>
+        <v>16.368</v>
       </c>
       <c r="I5" t="n">
-        <v>20.691</v>
+        <v>13.315</v>
       </c>
       <c r="J5" t="n">
-        <v>17.483</v>
+        <v>21.622</v>
       </c>
       <c r="K5" t="n">
-        <v>14.869</v>
+        <v>11.186</v>
       </c>
       <c r="L5" t="n">
-        <v>15.541</v>
+        <v>22.469</v>
       </c>
       <c r="M5" t="n">
-        <v>20.151</v>
+        <v>19.236</v>
       </c>
       <c r="N5" t="n">
-        <v>17.977</v>
+        <v>16.303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Llama-3.2-3B-Instruct</t>
+          <t>Qwen2.5-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -735,43 +735,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.24</v>
+        <v>17.292</v>
       </c>
       <c r="E6" t="n">
-        <v>16.937</v>
+        <v>19.6</v>
       </c>
       <c r="F6" t="n">
-        <v>25.505</v>
+        <v>18.446</v>
       </c>
       <c r="G6" t="n">
-        <v>21.352</v>
+        <v>18.472</v>
       </c>
       <c r="H6" t="n">
-        <v>26.268</v>
+        <v>17.229</v>
       </c>
       <c r="I6" t="n">
-        <v>15.714</v>
+        <v>20.691</v>
       </c>
       <c r="J6" t="n">
-        <v>26.12</v>
+        <v>17.483</v>
       </c>
       <c r="K6" t="n">
-        <v>15.449</v>
+        <v>14.869</v>
       </c>
       <c r="L6" t="n">
-        <v>22.371</v>
+        <v>15.541</v>
       </c>
       <c r="M6" t="n">
-        <v>27.441</v>
+        <v>20.151</v>
       </c>
       <c r="N6" t="n">
-        <v>21.44</v>
+        <v>17.977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Qwen2.5-3B-Instruct</t>
+          <t>Llama-3.2-3B-Instruct</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -783,47 +783,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20.444</v>
+        <v>17.24</v>
       </c>
       <c r="E7" t="n">
-        <v>20.832</v>
+        <v>16.937</v>
       </c>
       <c r="F7" t="n">
-        <v>19.562</v>
+        <v>25.505</v>
       </c>
       <c r="G7" t="n">
-        <v>17.51</v>
+        <v>21.352</v>
       </c>
       <c r="H7" t="n">
-        <v>18.038</v>
+        <v>26.268</v>
       </c>
       <c r="I7" t="n">
-        <v>35.916</v>
+        <v>15.714</v>
       </c>
       <c r="J7" t="n">
-        <v>18.61</v>
+        <v>26.12</v>
       </c>
       <c r="K7" t="n">
-        <v>17.119</v>
+        <v>15.449</v>
       </c>
       <c r="L7" t="n">
-        <v>21.112</v>
+        <v>22.371</v>
       </c>
       <c r="M7" t="n">
-        <v>21.227</v>
+        <v>27.441</v>
       </c>
       <c r="N7" t="n">
-        <v>21.037</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gemma-3-4b-it</t>
+          <t>Qwen2.5-3B-Instruct</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,95 +831,95 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.135</v>
+        <v>20.444</v>
       </c>
       <c r="E8" t="n">
-        <v>19.279</v>
+        <v>20.832</v>
       </c>
       <c r="F8" t="n">
-        <v>20.63</v>
+        <v>19.562</v>
       </c>
       <c r="G8" t="n">
-        <v>16.985</v>
+        <v>17.51</v>
       </c>
       <c r="H8" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>37.441</v>
+        <v>18.038</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35.916</v>
       </c>
       <c r="J8" t="n">
-        <v>23.207</v>
+        <v>18.61</v>
       </c>
       <c r="K8" t="n">
-        <v>16.537</v>
+        <v>17.119</v>
       </c>
       <c r="L8" t="n">
-        <v>20.248</v>
+        <v>21.112</v>
       </c>
       <c r="M8" t="n">
-        <v>26.321</v>
+        <v>21.227</v>
       </c>
       <c r="N8" t="n">
-        <v>22.401</v>
+        <v>21.037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Qwen2.5-7B-Instruct</t>
+          <t>gemma-3-4b-it</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5B-10B</t>
+          <t>小于5B</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30.319</v>
+        <v>19.135</v>
       </c>
       <c r="E9" t="n">
-        <v>27.082</v>
+        <v>19.279</v>
       </c>
       <c r="F9" t="n">
-        <v>24.379</v>
+        <v>20.63</v>
       </c>
       <c r="G9" t="n">
-        <v>27.405</v>
+        <v>16.985</v>
       </c>
       <c r="H9" t="n">
-        <v>28.785</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>45.582</v>
+        <v>24.225</v>
+      </c>
+      <c r="I9" t="n">
+        <v>37.441</v>
       </c>
       <c r="J9" t="n">
-        <v>29.112</v>
+        <v>23.207</v>
       </c>
       <c r="K9" t="n">
-        <v>23.953</v>
+        <v>16.537</v>
       </c>
       <c r="L9" t="n">
-        <v>29.254</v>
+        <v>20.248</v>
       </c>
       <c r="M9" t="n">
-        <v>32.52</v>
+        <v>26.321</v>
       </c>
       <c r="N9" t="n">
-        <v>29.839</v>
+        <v>22.401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>glm-4-9b-chat</t>
+          <t>Qwen2.5-7B-Instruct</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -927,95 +927,95 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28.641</v>
+        <v>30.319</v>
       </c>
       <c r="E10" t="n">
-        <v>25.943</v>
+        <v>27.082</v>
       </c>
       <c r="F10" t="n">
-        <v>27.366</v>
+        <v>24.379</v>
       </c>
       <c r="G10" t="n">
-        <v>30.731</v>
+        <v>27.405</v>
       </c>
       <c r="H10" t="n">
-        <v>33.034</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20.063</v>
+        <v>28.785</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45.582</v>
       </c>
       <c r="J10" t="n">
-        <v>32.964</v>
+        <v>29.112</v>
       </c>
       <c r="K10" t="n">
-        <v>25.543</v>
+        <v>23.953</v>
       </c>
       <c r="L10" t="n">
-        <v>30.926</v>
+        <v>29.254</v>
       </c>
       <c r="M10" t="n">
-        <v>34.79</v>
+        <v>32.52</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>29.839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gemma-3-12b-it</t>
+          <t>glm-4-9b-chat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10B-30B</t>
+          <t>5B-10B</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27.525</v>
+        <v>28.641</v>
       </c>
       <c r="E11" t="n">
-        <v>27.192</v>
+        <v>25.943</v>
       </c>
       <c r="F11" t="n">
-        <v>25.832</v>
+        <v>27.366</v>
       </c>
       <c r="G11" t="n">
-        <v>29.798</v>
+        <v>30.731</v>
       </c>
       <c r="H11" t="n">
-        <v>29.532</v>
+        <v>33.034</v>
       </c>
       <c r="I11" t="n">
-        <v>33.467</v>
+        <v>20.063</v>
       </c>
       <c r="J11" t="n">
-        <v>30.71</v>
+        <v>32.964</v>
       </c>
       <c r="K11" t="n">
-        <v>25.457</v>
+        <v>25.543</v>
       </c>
       <c r="L11" t="n">
-        <v>32.029</v>
+        <v>30.926</v>
       </c>
       <c r="M11" t="n">
-        <v>32.297</v>
+        <v>34.79</v>
       </c>
       <c r="N11" t="n">
-        <v>29.384</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qwen2.5-14B-Instruct</t>
+          <t>gemma-3-12b-it</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1023,47 +1023,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34.024</v>
+        <v>27.525</v>
       </c>
       <c r="E12" t="n">
-        <v>26.785</v>
+        <v>27.192</v>
       </c>
       <c r="F12" t="n">
-        <v>25.983</v>
+        <v>25.832</v>
       </c>
       <c r="G12" t="n">
-        <v>30.08</v>
+        <v>29.798</v>
       </c>
       <c r="H12" t="n">
-        <v>32.018</v>
+        <v>29.532</v>
       </c>
       <c r="I12" t="n">
-        <v>32.294</v>
+        <v>33.467</v>
       </c>
       <c r="J12" t="n">
-        <v>33.111</v>
+        <v>30.71</v>
       </c>
       <c r="K12" t="n">
-        <v>27.498</v>
+        <v>25.457</v>
       </c>
       <c r="L12" t="n">
-        <v>34.457</v>
+        <v>32.029</v>
       </c>
       <c r="M12" t="n">
-        <v>32.997</v>
+        <v>32.297</v>
       </c>
       <c r="N12" t="n">
-        <v>30.925</v>
+        <v>29.384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gemma-3-27b-it</t>
+          <t>Qwen2.5-14B-Instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1071,132 +1071,180 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>31.518</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>32.699</v>
+        <v>34.024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.785</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.983</v>
       </c>
       <c r="G13" t="n">
-        <v>32.329</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>35.985</v>
+        <v>30.08</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32.018</v>
       </c>
       <c r="I13" t="n">
-        <v>18.268</v>
+        <v>32.294</v>
       </c>
       <c r="J13" t="n">
-        <v>34.052</v>
+        <v>33.111</v>
       </c>
       <c r="K13" t="n">
-        <v>27.708</v>
+        <v>27.498</v>
       </c>
       <c r="L13" t="n">
-        <v>33.249</v>
+        <v>34.457</v>
       </c>
       <c r="M13" t="n">
-        <v>35.444</v>
+        <v>32.997</v>
       </c>
       <c r="N13" t="n">
-        <v>31.111</v>
+        <v>30.925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Qwen2.5-32B-Instruct</t>
+          <t>gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大于30B</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>34.059</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>31.775</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29.975</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>33.973</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>36.895</v>
+          <t>10B-30B</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>31.518</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>32.699</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32.329</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>35.985</v>
       </c>
       <c r="I14" t="n">
-        <v>18.728</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>36.04</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>29.676</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>38.789</v>
+        <v>18.268</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34.052</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.708</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33.249</v>
+      </c>
+      <c r="M14" t="n">
+        <v>35.444</v>
       </c>
       <c r="N14" t="n">
-        <v>32.451</v>
+        <v>31.111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Qwen2.5-32B-Instruct</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大于30B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>34.059</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>31.775</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.975</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>33.973</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>36.895</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>29.676</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>38.789</v>
+      </c>
+      <c r="N15" t="n">
+        <v>30.578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Qwen2.5-72B-Instruct</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>大于30B</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>34.24</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>31.487</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F16" s="3" t="n">
         <v>31.063</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>34.523</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>35.944</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>21.668</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J16" s="3" t="n">
         <v>35.124</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>30.908</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>39.242</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>33.17</v>
       </c>
     </row>
@@ -1211,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,11 +1358,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qwen3-0.6B</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -1322,10 +1370,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.837</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1336,8 +1384,8 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="I2" s="3" t="n">
+        <v>41.82</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1352,17 +1400,17 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.514</v>
+        <v>4.182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gemma-3-1b-it</t>
+          <t>Qwen3-0.6B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1370,43 +1418,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.924</v>
+        <v>8.837</v>
       </c>
       <c r="E3" t="n">
-        <v>14.703</v>
+        <v>16.3</v>
       </c>
       <c r="F3" t="n">
-        <v>12.765</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14.632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.547</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10.778</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11.784</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11.938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10.787</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Llama-3.2-1B-Instruct</t>
+          <t>gemma-3-1b-it</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1418,47 +1466,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.449</v>
+        <v>12.924</v>
       </c>
       <c r="E4" t="n">
-        <v>14.539</v>
+        <v>14.703</v>
       </c>
       <c r="F4" t="n">
-        <v>16.981</v>
+        <v>12.765</v>
       </c>
       <c r="G4" t="n">
-        <v>14.866</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.368</v>
+        <v>14.632</v>
       </c>
       <c r="I4" t="n">
-        <v>13.315</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.622</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11.186</v>
+        <v>10.778</v>
       </c>
       <c r="L4" t="n">
-        <v>22.469</v>
+        <v>11.784</v>
       </c>
       <c r="M4" t="n">
-        <v>19.236</v>
+        <v>11.938</v>
       </c>
       <c r="N4" t="n">
-        <v>16.303</v>
+        <v>8.952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qwen2.5-1.5B-Instruct</t>
+          <t>Llama-3.2-1B-Instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1466,47 +1514,47 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.292</v>
+        <v>12.449</v>
       </c>
       <c r="E5" t="n">
-        <v>19.6</v>
+        <v>14.539</v>
       </c>
       <c r="F5" t="n">
-        <v>18.446</v>
+        <v>16.981</v>
       </c>
       <c r="G5" t="n">
-        <v>18.472</v>
+        <v>14.866</v>
       </c>
       <c r="H5" t="n">
-        <v>17.229</v>
+        <v>16.368</v>
       </c>
       <c r="I5" t="n">
-        <v>20.691</v>
+        <v>13.315</v>
       </c>
       <c r="J5" t="n">
-        <v>17.483</v>
+        <v>21.622</v>
       </c>
       <c r="K5" t="n">
-        <v>14.869</v>
+        <v>11.186</v>
       </c>
       <c r="L5" t="n">
-        <v>15.541</v>
+        <v>22.469</v>
       </c>
       <c r="M5" t="n">
-        <v>20.151</v>
+        <v>19.236</v>
       </c>
       <c r="N5" t="n">
-        <v>17.977</v>
+        <v>16.303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Llama-3.2-3B-Instruct</t>
+          <t>Qwen2.5-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1514,43 +1562,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.24</v>
+        <v>17.292</v>
       </c>
       <c r="E6" t="n">
-        <v>16.937</v>
+        <v>19.6</v>
       </c>
       <c r="F6" t="n">
-        <v>25.505</v>
+        <v>18.446</v>
       </c>
       <c r="G6" t="n">
-        <v>21.352</v>
+        <v>18.472</v>
       </c>
       <c r="H6" t="n">
-        <v>26.268</v>
+        <v>17.229</v>
       </c>
       <c r="I6" t="n">
-        <v>15.714</v>
+        <v>20.691</v>
       </c>
       <c r="J6" t="n">
-        <v>26.12</v>
+        <v>17.483</v>
       </c>
       <c r="K6" t="n">
-        <v>15.449</v>
+        <v>14.869</v>
       </c>
       <c r="L6" t="n">
-        <v>22.371</v>
+        <v>15.541</v>
       </c>
       <c r="M6" t="n">
-        <v>27.441</v>
+        <v>20.151</v>
       </c>
       <c r="N6" t="n">
-        <v>21.44</v>
+        <v>17.977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Qwen2.5-3B-Instruct</t>
+          <t>Llama-3.2-3B-Instruct</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1562,47 +1610,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20.444</v>
+        <v>17.24</v>
       </c>
       <c r="E7" t="n">
-        <v>20.832</v>
+        <v>16.937</v>
       </c>
       <c r="F7" t="n">
-        <v>19.562</v>
+        <v>25.505</v>
       </c>
       <c r="G7" t="n">
-        <v>17.51</v>
+        <v>21.352</v>
       </c>
       <c r="H7" t="n">
-        <v>18.038</v>
+        <v>26.268</v>
       </c>
       <c r="I7" t="n">
-        <v>35.916</v>
+        <v>15.714</v>
       </c>
       <c r="J7" t="n">
-        <v>18.61</v>
+        <v>26.12</v>
       </c>
       <c r="K7" t="n">
-        <v>17.119</v>
+        <v>15.449</v>
       </c>
       <c r="L7" t="n">
-        <v>21.112</v>
+        <v>22.371</v>
       </c>
       <c r="M7" t="n">
-        <v>21.227</v>
+        <v>27.441</v>
       </c>
       <c r="N7" t="n">
-        <v>21.037</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gemma-3-4b-it</t>
+          <t>Qwen2.5-3B-Instruct</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1610,95 +1658,95 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.135</v>
+        <v>20.444</v>
       </c>
       <c r="E8" t="n">
-        <v>19.279</v>
+        <v>20.832</v>
       </c>
       <c r="F8" t="n">
-        <v>20.63</v>
+        <v>19.562</v>
       </c>
       <c r="G8" t="n">
-        <v>16.985</v>
+        <v>17.51</v>
       </c>
       <c r="H8" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>37.441</v>
+        <v>18.038</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35.916</v>
       </c>
       <c r="J8" t="n">
-        <v>23.207</v>
+        <v>18.61</v>
       </c>
       <c r="K8" t="n">
-        <v>16.537</v>
+        <v>17.119</v>
       </c>
       <c r="L8" t="n">
-        <v>20.248</v>
+        <v>21.112</v>
       </c>
       <c r="M8" t="n">
-        <v>26.321</v>
+        <v>21.227</v>
       </c>
       <c r="N8" t="n">
-        <v>22.401</v>
+        <v>21.037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Qwen2.5-7B-Instruct</t>
+          <t>gemma-3-4b-it</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5B-10B</t>
+          <t>小于5B</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30.319</v>
+        <v>19.135</v>
       </c>
       <c r="E9" t="n">
-        <v>27.082</v>
+        <v>19.279</v>
       </c>
       <c r="F9" t="n">
-        <v>24.379</v>
+        <v>20.63</v>
       </c>
       <c r="G9" t="n">
-        <v>27.405</v>
+        <v>16.985</v>
       </c>
       <c r="H9" t="n">
-        <v>28.785</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>45.582</v>
+        <v>24.225</v>
+      </c>
+      <c r="I9" t="n">
+        <v>37.441</v>
       </c>
       <c r="J9" t="n">
-        <v>29.112</v>
+        <v>23.207</v>
       </c>
       <c r="K9" t="n">
-        <v>23.953</v>
+        <v>16.537</v>
       </c>
       <c r="L9" t="n">
-        <v>29.254</v>
+        <v>20.248</v>
       </c>
       <c r="M9" t="n">
-        <v>32.52</v>
+        <v>26.321</v>
       </c>
       <c r="N9" t="n">
-        <v>29.839</v>
+        <v>22.401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>glm-4-9b-chat</t>
+          <t>Qwen2.5-7B-Instruct</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1706,95 +1754,95 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28.641</v>
+        <v>30.319</v>
       </c>
       <c r="E10" t="n">
-        <v>25.943</v>
+        <v>27.082</v>
       </c>
       <c r="F10" t="n">
-        <v>27.366</v>
+        <v>24.379</v>
       </c>
       <c r="G10" t="n">
-        <v>30.731</v>
+        <v>27.405</v>
       </c>
       <c r="H10" t="n">
-        <v>33.034</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20.063</v>
+        <v>28.785</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45.582</v>
       </c>
       <c r="J10" t="n">
-        <v>32.964</v>
+        <v>29.112</v>
       </c>
       <c r="K10" t="n">
-        <v>25.543</v>
+        <v>23.953</v>
       </c>
       <c r="L10" t="n">
-        <v>30.926</v>
+        <v>29.254</v>
       </c>
       <c r="M10" t="n">
-        <v>34.79</v>
+        <v>32.52</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>29.839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gemma-3-12b-it</t>
+          <t>glm-4-9b-chat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10B-30B</t>
+          <t>5B-10B</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27.525</v>
+        <v>28.641</v>
       </c>
       <c r="E11" t="n">
-        <v>27.192</v>
+        <v>25.943</v>
       </c>
       <c r="F11" t="n">
-        <v>25.832</v>
+        <v>27.366</v>
       </c>
       <c r="G11" t="n">
-        <v>29.798</v>
+        <v>30.731</v>
       </c>
       <c r="H11" t="n">
-        <v>29.532</v>
+        <v>33.034</v>
       </c>
       <c r="I11" t="n">
-        <v>33.467</v>
+        <v>20.063</v>
       </c>
       <c r="J11" t="n">
-        <v>30.71</v>
+        <v>32.964</v>
       </c>
       <c r="K11" t="n">
-        <v>25.457</v>
+        <v>25.543</v>
       </c>
       <c r="L11" t="n">
-        <v>32.029</v>
+        <v>30.926</v>
       </c>
       <c r="M11" t="n">
-        <v>32.297</v>
+        <v>34.79</v>
       </c>
       <c r="N11" t="n">
-        <v>29.384</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qwen2.5-14B-Instruct</t>
+          <t>gemma-3-12b-it</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1802,47 +1850,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34.024</v>
+        <v>27.525</v>
       </c>
       <c r="E12" t="n">
-        <v>26.785</v>
+        <v>27.192</v>
       </c>
       <c r="F12" t="n">
-        <v>25.983</v>
+        <v>25.832</v>
       </c>
       <c r="G12" t="n">
-        <v>30.08</v>
+        <v>29.798</v>
       </c>
       <c r="H12" t="n">
-        <v>32.018</v>
+        <v>29.532</v>
       </c>
       <c r="I12" t="n">
-        <v>32.294</v>
+        <v>33.467</v>
       </c>
       <c r="J12" t="n">
-        <v>33.111</v>
+        <v>30.71</v>
       </c>
       <c r="K12" t="n">
-        <v>27.498</v>
+        <v>25.457</v>
       </c>
       <c r="L12" t="n">
-        <v>34.457</v>
+        <v>32.029</v>
       </c>
       <c r="M12" t="n">
-        <v>32.997</v>
+        <v>32.297</v>
       </c>
       <c r="N12" t="n">
-        <v>30.925</v>
+        <v>29.384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gemma-3-27b-it</t>
+          <t>Qwen2.5-14B-Instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1850,132 +1898,180 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>31.518</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>32.699</v>
+        <v>34.024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.785</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.983</v>
       </c>
       <c r="G13" t="n">
-        <v>32.329</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>35.985</v>
+        <v>30.08</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32.018</v>
       </c>
       <c r="I13" t="n">
-        <v>18.268</v>
+        <v>32.294</v>
       </c>
       <c r="J13" t="n">
-        <v>34.052</v>
+        <v>33.111</v>
       </c>
       <c r="K13" t="n">
-        <v>27.708</v>
+        <v>27.498</v>
       </c>
       <c r="L13" t="n">
-        <v>33.249</v>
+        <v>34.457</v>
       </c>
       <c r="M13" t="n">
-        <v>35.444</v>
+        <v>32.997</v>
       </c>
       <c r="N13" t="n">
-        <v>31.111</v>
+        <v>30.925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Qwen2.5-32B-Instruct</t>
+          <t>gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大于30B</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>34.059</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>31.775</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29.975</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>33.973</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>36.895</v>
+          <t>10B-30B</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>31.518</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>32.699</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32.329</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>35.985</v>
       </c>
       <c r="I14" t="n">
-        <v>18.728</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>36.04</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>29.676</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>38.789</v>
+        <v>18.268</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34.052</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.708</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33.249</v>
+      </c>
+      <c r="M14" t="n">
+        <v>35.444</v>
       </c>
       <c r="N14" t="n">
-        <v>32.451</v>
+        <v>31.111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Qwen2.5-32B-Instruct</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大于30B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>34.059</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>31.775</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.975</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>33.973</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>36.895</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>29.676</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>38.789</v>
+      </c>
+      <c r="N15" t="n">
+        <v>30.578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Qwen2.5-72B-Instruct</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>大于30B</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>34.24</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>31.487</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F16" s="3" t="n">
         <v>31.063</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>34.523</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>35.944</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>21.668</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J16" s="3" t="n">
         <v>35.124</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>30.908</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>39.242</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>33.17</v>
       </c>
     </row>
@@ -1990,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,11 +2185,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qwen3-0.6B</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -2101,10 +2197,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.214</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2115,8 +2211,8 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="I2" s="2" t="n">
+        <v>36.192</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2131,17 +2227,17 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.364</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gemma-3-1b-it</t>
+          <t>Qwen3-0.6B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2149,43 +2245,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>1.428</v>
       </c>
       <c r="E3" t="n">
-        <v>1.212</v>
+        <v>2.214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.853</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.317</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.108</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.787</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Llama-3.2-1B-Instruct</t>
+          <t>gemma-3-1b-it</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2197,47 +2293,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.658</v>
+        <v>1.41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.389</v>
+        <v>1.212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.587</v>
+        <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.349</v>
+        <v>0.853</v>
       </c>
       <c r="I4" t="n">
-        <v>0.356</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.68</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="M4" t="n">
-        <v>0.749</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.485</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qwen2.5-1.5B-Instruct</t>
+          <t>Llama-3.2-1B-Instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2245,47 +2341,47 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.367</v>
+        <v>0.658</v>
       </c>
       <c r="E5" t="n">
-        <v>4.793</v>
+        <v>0.389</v>
       </c>
       <c r="F5" t="n">
-        <v>6.516</v>
+        <v>0.587</v>
       </c>
       <c r="G5" t="n">
-        <v>7.037</v>
+        <v>0.341</v>
       </c>
       <c r="H5" t="n">
-        <v>6.044</v>
+        <v>0.349</v>
       </c>
       <c r="I5" t="n">
-        <v>1.321</v>
+        <v>0.356</v>
       </c>
       <c r="J5" t="n">
-        <v>3.123</v>
+        <v>0.424</v>
       </c>
       <c r="K5" t="n">
-        <v>2.049</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
-        <v>2.479</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>5.143</v>
+        <v>0.749</v>
       </c>
       <c r="N5" t="n">
-        <v>4.187</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Llama-3.2-3B-Instruct</t>
+          <t>Qwen2.5-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2293,43 +2389,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.48</v>
+        <v>3.367</v>
       </c>
       <c r="E6" t="n">
-        <v>2.978</v>
+        <v>4.793</v>
       </c>
       <c r="F6" t="n">
-        <v>2.59</v>
+        <v>6.516</v>
       </c>
       <c r="G6" t="n">
-        <v>2.302</v>
+        <v>7.037</v>
       </c>
       <c r="H6" t="n">
-        <v>1.358</v>
+        <v>6.044</v>
       </c>
       <c r="I6" t="n">
-        <v>1.138</v>
+        <v>1.321</v>
       </c>
       <c r="J6" t="n">
-        <v>1.718</v>
+        <v>3.123</v>
       </c>
       <c r="K6" t="n">
-        <v>2.296</v>
+        <v>2.049</v>
       </c>
       <c r="L6" t="n">
-        <v>2.034</v>
+        <v>2.479</v>
       </c>
       <c r="M6" t="n">
-        <v>1.691</v>
+        <v>5.143</v>
       </c>
       <c r="N6" t="n">
-        <v>1.959</v>
+        <v>4.187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Qwen2.5-3B-Instruct</t>
+          <t>Llama-3.2-3B-Instruct</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2341,47 +2437,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.779</v>
+        <v>1.48</v>
       </c>
       <c r="E7" t="n">
-        <v>2.847</v>
+        <v>2.978</v>
       </c>
       <c r="F7" t="n">
-        <v>4.461</v>
+        <v>2.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.463</v>
+        <v>2.302</v>
       </c>
       <c r="H7" t="n">
-        <v>2.704</v>
+        <v>1.358</v>
       </c>
       <c r="I7" t="n">
-        <v>1.725</v>
+        <v>1.138</v>
       </c>
       <c r="J7" t="n">
-        <v>3.108</v>
+        <v>1.718</v>
       </c>
       <c r="K7" t="n">
-        <v>1.746</v>
+        <v>2.296</v>
       </c>
       <c r="L7" t="n">
-        <v>2.267</v>
+        <v>2.034</v>
       </c>
       <c r="M7" t="n">
-        <v>6.529</v>
+        <v>1.691</v>
       </c>
       <c r="N7" t="n">
-        <v>2.963</v>
+        <v>1.959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gemma-3-4b-it</t>
+          <t>Qwen2.5-3B-Instruct</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2389,191 +2485,191 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.062</v>
+        <v>2.779</v>
       </c>
       <c r="E8" t="n">
-        <v>10.123</v>
+        <v>2.847</v>
       </c>
       <c r="F8" t="n">
-        <v>10.286</v>
+        <v>4.461</v>
       </c>
       <c r="G8" t="n">
-        <v>7.787</v>
+        <v>1.463</v>
       </c>
       <c r="H8" t="n">
-        <v>9.689</v>
+        <v>2.704</v>
       </c>
       <c r="I8" t="n">
-        <v>3.226</v>
+        <v>1.725</v>
       </c>
       <c r="J8" t="n">
-        <v>6.228</v>
+        <v>3.108</v>
       </c>
       <c r="K8" t="n">
-        <v>5.485</v>
+        <v>1.746</v>
       </c>
       <c r="L8" t="n">
-        <v>6.63</v>
+        <v>2.267</v>
       </c>
       <c r="M8" t="n">
-        <v>10.037</v>
+        <v>6.529</v>
       </c>
       <c r="N8" t="n">
-        <v>7.655</v>
+        <v>2.963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Qwen2.5-7B-Instruct</t>
+          <t>gemma-3-4b-it</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5B-10B</t>
+          <t>小于5B</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.802</v>
+        <v>7.062</v>
       </c>
       <c r="E9" t="n">
-        <v>9.010999999999999</v>
+        <v>10.123</v>
       </c>
       <c r="F9" t="n">
-        <v>10.803</v>
+        <v>10.286</v>
       </c>
       <c r="G9" t="n">
-        <v>9.999000000000001</v>
+        <v>7.787</v>
       </c>
       <c r="H9" t="n">
-        <v>12.651</v>
+        <v>9.689</v>
       </c>
       <c r="I9" t="n">
-        <v>4.012</v>
+        <v>3.226</v>
       </c>
       <c r="J9" t="n">
-        <v>5.888</v>
+        <v>6.228</v>
       </c>
       <c r="K9" t="n">
-        <v>5.174</v>
+        <v>5.485</v>
       </c>
       <c r="L9" t="n">
-        <v>6.361</v>
+        <v>6.63</v>
       </c>
       <c r="M9" t="n">
-        <v>10.728</v>
+        <v>10.037</v>
       </c>
       <c r="N9" t="n">
-        <v>7.943</v>
+        <v>7.655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>glm-4-9b-chat</t>
+          <t>Qwen2.5-7B-Instruct</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>5B-10B</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>16.598</v>
+      <c r="D10" t="n">
+        <v>4.802</v>
       </c>
       <c r="E10" t="n">
-        <v>12.309</v>
+        <v>9.010999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>12.598</v>
+        <v>10.803</v>
       </c>
       <c r="G10" t="n">
-        <v>10.921</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>15.969</v>
+        <v>12.651</v>
       </c>
       <c r="I10" t="n">
-        <v>5.311</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>13.876</v>
+        <v>4.012</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.888</v>
       </c>
       <c r="K10" t="n">
-        <v>11.245</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>13.976</v>
+        <v>5.174</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.361</v>
       </c>
       <c r="M10" t="n">
-        <v>10.882</v>
+        <v>10.728</v>
       </c>
       <c r="N10" t="n">
-        <v>12.369</v>
+        <v>7.943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gemma-3-12b-it</t>
+          <t>glm-4-9b-chat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10B-30B</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7.047</v>
+          <t>5B-10B</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>16.598</v>
       </c>
       <c r="E11" t="n">
-        <v>12.456</v>
+        <v>12.309</v>
       </c>
       <c r="F11" t="n">
-        <v>13.635</v>
+        <v>12.598</v>
       </c>
       <c r="G11" t="n">
-        <v>12.919</v>
+        <v>10.921</v>
       </c>
       <c r="H11" t="n">
-        <v>13.352</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>6.273</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.48</v>
+        <v>15.969</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.311</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>13.876</v>
       </c>
       <c r="K11" t="n">
-        <v>8.946</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9.92</v>
+        <v>11.245</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>13.976</v>
       </c>
       <c r="M11" t="n">
-        <v>11.103</v>
+        <v>10.882</v>
       </c>
       <c r="N11" t="n">
-        <v>10.213</v>
+        <v>12.369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qwen2.5-14B-Instruct</t>
+          <t>gemma-3-12b-it</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2581,47 +2677,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.401</v>
+        <v>7.047</v>
       </c>
       <c r="E12" t="n">
-        <v>5.959</v>
+        <v>12.456</v>
       </c>
       <c r="F12" t="n">
-        <v>5.557</v>
+        <v>13.635</v>
       </c>
       <c r="G12" t="n">
-        <v>4.591</v>
+        <v>12.919</v>
       </c>
       <c r="H12" t="n">
-        <v>4.789</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.396</v>
+        <v>13.352</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>6.273</v>
       </c>
       <c r="J12" t="n">
-        <v>4.225</v>
+        <v>6.48</v>
       </c>
       <c r="K12" t="n">
-        <v>6.464</v>
+        <v>8.946</v>
       </c>
       <c r="L12" t="n">
-        <v>5.304</v>
+        <v>9.92</v>
       </c>
       <c r="M12" t="n">
-        <v>5.966</v>
+        <v>11.103</v>
       </c>
       <c r="N12" t="n">
-        <v>5.165</v>
+        <v>10.213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gemma-3-27b-it</t>
+          <t>Qwen2.5-14B-Instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2629,132 +2725,180 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7.701</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>13.804</v>
+        <v>5.401</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.959</v>
       </c>
       <c r="F13" t="n">
-        <v>13.123</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>14.884</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>17.494</v>
+        <v>5.557</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.591</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.789</v>
       </c>
       <c r="I13" t="n">
-        <v>5.001</v>
+        <v>3.396</v>
       </c>
       <c r="J13" t="n">
-        <v>7.323</v>
+        <v>4.225</v>
       </c>
       <c r="K13" t="n">
-        <v>10.944</v>
+        <v>6.464</v>
       </c>
       <c r="L13" t="n">
-        <v>12.894</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>13.544</v>
+        <v>5.304</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.966</v>
       </c>
       <c r="N13" t="n">
-        <v>11.671</v>
+        <v>5.165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Qwen2.5-32B-Instruct</t>
+          <t>gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大于30B</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>10.253</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>16.433</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>14.323</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>17.612</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>6.471</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>10.125</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>17.633</v>
+          <t>10B-30B</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>13.804</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.123</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>14.884</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>17.494</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.944</v>
       </c>
       <c r="L14" t="n">
-        <v>13.237</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12.711</v>
+        <v>12.894</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>13.544</v>
       </c>
       <c r="N14" t="n">
-        <v>13.594</v>
+        <v>11.671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Qwen2.5-32B-Instruct</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大于30B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>10.253</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>16.433</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>14.323</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>17.612</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>17.633</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13.237</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.711</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Qwen2.5-72B-Instruct</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>大于30B</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>9.856999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>13.107</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>18.868</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>13.941</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>15.081</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>5.133</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>7.496</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>19.227</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>14.573</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>14.775</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>13.206</v>
       </c>
     </row>
